--- a/data/pca/factorExposure/factorExposure_2017-12-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.009091778105310389</v>
+        <v>0.01262108971649497</v>
       </c>
       <c r="C2">
-        <v>-5.194331743118234e-05</v>
+        <v>-0.04005955548531397</v>
       </c>
       <c r="D2">
-        <v>-0.02504347242201234</v>
+        <v>0.02865845860963213</v>
       </c>
       <c r="E2">
-        <v>0.06280154255006987</v>
+        <v>0.02650471564036964</v>
       </c>
       <c r="F2">
-        <v>0.00944609070004339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03370934835547239</v>
+      </c>
+      <c r="G2">
+        <v>0.01273638985845916</v>
+      </c>
+      <c r="H2">
+        <v>0.01496083954422515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08017224547452495</v>
+        <v>0.06539042969937603</v>
       </c>
       <c r="C3">
-        <v>0.005705472640879798</v>
+        <v>-0.07851922374048019</v>
       </c>
       <c r="D3">
-        <v>0.04617729697630463</v>
+        <v>0.01311974697840934</v>
       </c>
       <c r="E3">
-        <v>0.2409895706739091</v>
+        <v>0.0733728706713704</v>
       </c>
       <c r="F3">
-        <v>0.07000344916003368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0765657948977248</v>
+      </c>
+      <c r="G3">
+        <v>0.06530415742998102</v>
+      </c>
+      <c r="H3">
+        <v>0.00726223264076052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03427266076596704</v>
+        <v>0.05682424895820443</v>
       </c>
       <c r="C4">
-        <v>-0.02206800953146685</v>
+        <v>-0.06188431218729273</v>
       </c>
       <c r="D4">
-        <v>-0.03450919305065384</v>
+        <v>0.0215538776707706</v>
       </c>
       <c r="E4">
-        <v>0.03422602095444639</v>
+        <v>-0.0032452562629432</v>
       </c>
       <c r="F4">
-        <v>-0.02678150599859457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01901778929599175</v>
+      </c>
+      <c r="G4">
+        <v>0.0375387256197462</v>
+      </c>
+      <c r="H4">
+        <v>-0.0292813994897272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.06031914820587574</v>
+        <v>0.03195203470864751</v>
       </c>
       <c r="C6">
-        <v>-0.01458661714299339</v>
+        <v>-0.05629748722230626</v>
       </c>
       <c r="D6">
-        <v>-0.05143199070793522</v>
+        <v>0.01598942787939985</v>
       </c>
       <c r="E6">
-        <v>0.03025206600787925</v>
+        <v>0.004504791736632006</v>
       </c>
       <c r="F6">
-        <v>-0.04526538909930922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01626818164075534</v>
+      </c>
+      <c r="G6">
+        <v>0.02074071580121825</v>
+      </c>
+      <c r="H6">
+        <v>-0.007519831017669646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.026809860565332</v>
+        <v>0.01813068222079628</v>
       </c>
       <c r="C7">
-        <v>-0.06916924043860535</v>
+        <v>-0.03871583878960413</v>
       </c>
       <c r="D7">
-        <v>0.008845685748647957</v>
+        <v>0.01243037526405659</v>
       </c>
       <c r="E7">
-        <v>0.01140771098996525</v>
+        <v>-0.01681224882869507</v>
       </c>
       <c r="F7">
-        <v>0.01544819403691536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01011831358411447</v>
+      </c>
+      <c r="G7">
+        <v>0.07302613209896726</v>
+      </c>
+      <c r="H7">
+        <v>0.002341573860964037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0130828714365578</v>
+        <v>-0.005003349766806022</v>
       </c>
       <c r="C8">
-        <v>-0.009842184111105401</v>
+        <v>-0.01301668528893056</v>
       </c>
       <c r="D8">
-        <v>-0.01512459595978733</v>
+        <v>0.003689125348958727</v>
       </c>
       <c r="E8">
-        <v>0.02773172273762197</v>
+        <v>0.01276953617707361</v>
       </c>
       <c r="F8">
-        <v>0.01629836169272676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02315632116725716</v>
+      </c>
+      <c r="G8">
+        <v>0.02477078498255001</v>
+      </c>
+      <c r="H8">
+        <v>-0.02004446848259255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03037128588749905</v>
+        <v>0.02882162345425406</v>
       </c>
       <c r="C9">
-        <v>-0.01450606868251772</v>
+        <v>-0.04252117845902928</v>
       </c>
       <c r="D9">
-        <v>-0.02348862818349179</v>
+        <v>0.01499234837928072</v>
       </c>
       <c r="E9">
-        <v>0.05286911398169286</v>
+        <v>-0.001149557021963815</v>
       </c>
       <c r="F9">
-        <v>-0.02522701728952479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01946064073915957</v>
+      </c>
+      <c r="G9">
+        <v>0.02824718686739361</v>
+      </c>
+      <c r="H9">
+        <v>0.004803421476697311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08909349227310728</v>
+        <v>0.0851771517493756</v>
       </c>
       <c r="C10">
-        <v>0.03589912130903133</v>
+        <v>0.1836824971513322</v>
       </c>
       <c r="D10">
-        <v>0.1550688350092425</v>
+        <v>-0.01928433179426381</v>
       </c>
       <c r="E10">
-        <v>0.02410260215086476</v>
+        <v>0.01629753681462466</v>
       </c>
       <c r="F10">
-        <v>0.001193261317763161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01255976909164436</v>
+      </c>
+      <c r="G10">
+        <v>0.03452096325611868</v>
+      </c>
+      <c r="H10">
+        <v>0.03000832627978627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02572443529938474</v>
+        <v>0.03579184233504568</v>
       </c>
       <c r="C11">
-        <v>-0.003153343951789565</v>
+        <v>-0.05383600070563378</v>
       </c>
       <c r="D11">
-        <v>-0.04445456554416834</v>
+        <v>0.0007554776547947146</v>
       </c>
       <c r="E11">
-        <v>0.01418946858473243</v>
+        <v>-0.007082354863519892</v>
       </c>
       <c r="F11">
-        <v>-0.02244563848519832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02746248306852833</v>
+      </c>
+      <c r="G11">
+        <v>0.008263398604646578</v>
+      </c>
+      <c r="H11">
+        <v>0.0009639744805392615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03189234776526652</v>
+        <v>0.03533840340049083</v>
       </c>
       <c r="C12">
-        <v>-0.01053408371893881</v>
+        <v>-0.04560021154467402</v>
       </c>
       <c r="D12">
-        <v>-0.04133820774657618</v>
+        <v>0.00500677299639047</v>
       </c>
       <c r="E12">
-        <v>-0.009260448545620085</v>
+        <v>-0.01234159906692805</v>
       </c>
       <c r="F12">
-        <v>-0.003709284356756804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.007200634329748108</v>
+      </c>
+      <c r="G12">
+        <v>0.01360562108580987</v>
+      </c>
+      <c r="H12">
+        <v>0.002930708292916912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02093485817199526</v>
+        <v>0.0112497984873638</v>
       </c>
       <c r="C13">
-        <v>0.0002071564919752255</v>
+        <v>-0.03252076553690821</v>
       </c>
       <c r="D13">
-        <v>-0.01540415035089516</v>
+        <v>0.02443407516229625</v>
       </c>
       <c r="E13">
-        <v>0.0437228309057338</v>
+        <v>0.01722867227242221</v>
       </c>
       <c r="F13">
-        <v>-0.01001367377155715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03216322144101495</v>
+      </c>
+      <c r="G13">
+        <v>0.02494351613833116</v>
+      </c>
+      <c r="H13">
+        <v>-0.007416488501974688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01532575198780329</v>
+        <v>0.007900285176699651</v>
       </c>
       <c r="C14">
-        <v>-0.01547583121267205</v>
+        <v>-0.02546678078138204</v>
       </c>
       <c r="D14">
-        <v>-0.007545058068331283</v>
+        <v>0.008187855163589974</v>
       </c>
       <c r="E14">
-        <v>0.01735511096393019</v>
+        <v>-0.007745847367866839</v>
       </c>
       <c r="F14">
-        <v>0.02370255195595299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.001238863843966153</v>
+      </c>
+      <c r="G14">
+        <v>0.03194232318985056</v>
+      </c>
+      <c r="H14">
+        <v>-0.01466078905777657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02430435374048854</v>
+        <v>0.03167244104527605</v>
       </c>
       <c r="C16">
-        <v>-0.009044910006164203</v>
+        <v>-0.04351777196110713</v>
       </c>
       <c r="D16">
-        <v>-0.0410771758719393</v>
+        <v>0.000544038728292461</v>
       </c>
       <c r="E16">
-        <v>0.01495343096007472</v>
+        <v>-0.005112308526614596</v>
       </c>
       <c r="F16">
-        <v>-0.0268742972175596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01557635938202964</v>
+      </c>
+      <c r="G16">
+        <v>0.01329834025203863</v>
+      </c>
+      <c r="H16">
+        <v>-0.0009998391693963517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02431173474258507</v>
+        <v>0.0274816041220759</v>
       </c>
       <c r="C19">
-        <v>-0.006828935302092769</v>
+        <v>-0.05574495283852084</v>
       </c>
       <c r="D19">
-        <v>-0.03589228434161144</v>
+        <v>0.01473169657869604</v>
       </c>
       <c r="E19">
-        <v>0.05060086233194967</v>
+        <v>0.03112685357834148</v>
       </c>
       <c r="F19">
-        <v>-0.03195323379994713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04370759052978004</v>
+      </c>
+      <c r="G19">
+        <v>0.03213643354454696</v>
+      </c>
+      <c r="H19">
+        <v>-0.03397153425311705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006546413341854211</v>
+        <v>0.01025899103702541</v>
       </c>
       <c r="C20">
-        <v>-0.002946815598557356</v>
+        <v>-0.03522639308084411</v>
       </c>
       <c r="D20">
-        <v>-0.0004180909818884612</v>
+        <v>0.01291072055026973</v>
       </c>
       <c r="E20">
-        <v>0.02985960608537248</v>
+        <v>0.01699476677727747</v>
       </c>
       <c r="F20">
-        <v>0.01125028989156472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01049142080257249</v>
+      </c>
+      <c r="G20">
+        <v>0.02463576012850017</v>
+      </c>
+      <c r="H20">
+        <v>-0.007639372601927534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0383392773628002</v>
+        <v>0.01205317021150648</v>
       </c>
       <c r="C21">
-        <v>-0.02581552121349632</v>
+        <v>-0.03460912900613458</v>
       </c>
       <c r="D21">
-        <v>-0.01678853426657655</v>
+        <v>0.01566490019862772</v>
       </c>
       <c r="E21">
-        <v>0.02371358262387295</v>
+        <v>0.02222902291853446</v>
       </c>
       <c r="F21">
-        <v>-0.01756863013371717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.022197886706538</v>
+      </c>
+      <c r="G21">
+        <v>0.04716051151222152</v>
+      </c>
+      <c r="H21">
+        <v>-0.01334764366209456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02303799690317517</v>
+        <v>0.02600637695061237</v>
       </c>
       <c r="C24">
-        <v>-0.006116873195089667</v>
+        <v>-0.04683713635907985</v>
       </c>
       <c r="D24">
-        <v>-0.03517371920838486</v>
+        <v>0.005738398634618318</v>
       </c>
       <c r="E24">
-        <v>0.01356465819891373</v>
+        <v>-0.0104622805988609</v>
       </c>
       <c r="F24">
-        <v>-0.02330128664950422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02317155764976999</v>
+      </c>
+      <c r="G24">
+        <v>0.01177677253395571</v>
+      </c>
+      <c r="H24">
+        <v>0.004113124804536179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03801308665857074</v>
+        <v>0.04388191194670907</v>
       </c>
       <c r="C25">
-        <v>-0.004507055359385608</v>
+        <v>-0.05220170435545877</v>
       </c>
       <c r="D25">
-        <v>-0.03709739115903546</v>
+        <v>0.009611902568987966</v>
       </c>
       <c r="E25">
-        <v>0.0278164708618846</v>
+        <v>-0.01655702908866603</v>
       </c>
       <c r="F25">
-        <v>-0.02838194201627376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01914300764623089</v>
+      </c>
+      <c r="G25">
+        <v>0.01795542248904396</v>
+      </c>
+      <c r="H25">
+        <v>-0.003973910062321671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003461485198641969</v>
+        <v>0.002909432532234102</v>
       </c>
       <c r="C26">
-        <v>-0.008570252401678254</v>
+        <v>-0.009001212266806368</v>
       </c>
       <c r="D26">
-        <v>0.002415440588117546</v>
+        <v>0.02393981957706121</v>
       </c>
       <c r="E26">
-        <v>0.03244703204244535</v>
+        <v>0.003110722965624558</v>
       </c>
       <c r="F26">
-        <v>0.02158533822955655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008703708514012093</v>
+      </c>
+      <c r="G26">
+        <v>0.02367047945509903</v>
+      </c>
+      <c r="H26">
+        <v>-0.00643240369773928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1341787788029675</v>
+        <v>0.1095953924075941</v>
       </c>
       <c r="C28">
-        <v>0.05101574600784985</v>
+        <v>0.2237777841738336</v>
       </c>
       <c r="D28">
-        <v>0.223831562425087</v>
+        <v>-0.01065580856238901</v>
       </c>
       <c r="E28">
-        <v>0.008203062581863638</v>
+        <v>0.006553729270585508</v>
       </c>
       <c r="F28">
-        <v>0.008902704121175232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.009211931654108094</v>
+      </c>
+      <c r="G28">
+        <v>0.05027422032769672</v>
+      </c>
+      <c r="H28">
+        <v>0.01283576937393676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01468415050087203</v>
+        <v>0.01206276669602288</v>
       </c>
       <c r="C29">
-        <v>-0.01160426956156277</v>
+        <v>-0.01931081259807613</v>
       </c>
       <c r="D29">
-        <v>-0.008295237468349131</v>
+        <v>0.006958195603282706</v>
       </c>
       <c r="E29">
-        <v>0.01682857196558336</v>
+        <v>-0.005788794371378947</v>
       </c>
       <c r="F29">
-        <v>0.0218264330050079</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.00511777812914971</v>
+      </c>
+      <c r="G29">
+        <v>0.0254445113083343</v>
+      </c>
+      <c r="H29">
+        <v>-0.02080422132456228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04400802176844125</v>
+        <v>0.03865379340062473</v>
       </c>
       <c r="C30">
-        <v>0.04090620185171073</v>
+        <v>-0.07375541626456858</v>
       </c>
       <c r="D30">
-        <v>-0.0781295739857239</v>
+        <v>0.02661305535705093</v>
       </c>
       <c r="E30">
-        <v>0.06034217300272115</v>
+        <v>0.01525852469008186</v>
       </c>
       <c r="F30">
-        <v>-0.00462986168798902</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04444992981487631</v>
+      </c>
+      <c r="G30">
+        <v>-0.01248066768789729</v>
+      </c>
+      <c r="H30">
+        <v>-0.009302673632840285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04503333536293867</v>
+        <v>0.04283450305092347</v>
       </c>
       <c r="C31">
-        <v>-0.01788256751072293</v>
+        <v>-0.02761883740912614</v>
       </c>
       <c r="D31">
-        <v>-0.02308299875117362</v>
+        <v>0.00236322178635101</v>
       </c>
       <c r="E31">
-        <v>-0.002935400217132305</v>
+        <v>-0.017112116680224</v>
       </c>
       <c r="F31">
-        <v>0.01664677007347552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02859614102471003</v>
+      </c>
+      <c r="G31">
+        <v>0.02426414789778028</v>
+      </c>
+      <c r="H31">
+        <v>-0.002188457426740616</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001468990194662624</v>
+        <v>0.006756041212729578</v>
       </c>
       <c r="C32">
-        <v>-0.03161437485460572</v>
+        <v>-0.03641621385090649</v>
       </c>
       <c r="D32">
-        <v>-0.02075813090572972</v>
+        <v>-0.004974423929025609</v>
       </c>
       <c r="E32">
-        <v>0.01786840136860217</v>
+        <v>0.01304760407591123</v>
       </c>
       <c r="F32">
-        <v>-0.005715407304392107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07655228192111599</v>
+      </c>
+      <c r="G32">
+        <v>0.05319929108291685</v>
+      </c>
+      <c r="H32">
+        <v>-0.06722110760236323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03372003958891036</v>
+        <v>0.02965223345473712</v>
       </c>
       <c r="C33">
-        <v>0.01433171931778167</v>
+        <v>-0.0520763603697553</v>
       </c>
       <c r="D33">
-        <v>-0.04019646386534275</v>
+        <v>0.01359970075563165</v>
       </c>
       <c r="E33">
-        <v>0.04083900301175031</v>
+        <v>0.01461106937435924</v>
       </c>
       <c r="F33">
-        <v>0.02030340920244394</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02580138237071321</v>
+      </c>
+      <c r="G33">
+        <v>0.01511303818067821</v>
+      </c>
+      <c r="H33">
+        <v>0.01882322683592431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02652713209575807</v>
+        <v>0.04627672959693532</v>
       </c>
       <c r="C34">
-        <v>-0.01785140376565167</v>
+        <v>-0.05333368926606942</v>
       </c>
       <c r="D34">
-        <v>-0.04114201813799395</v>
+        <v>-0.006563884112863851</v>
       </c>
       <c r="E34">
-        <v>0.01361900969065824</v>
+        <v>-0.01705014141980055</v>
       </c>
       <c r="F34">
-        <v>-0.02559578638383622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02388127840740503</v>
+      </c>
+      <c r="G34">
+        <v>0.02220207304073087</v>
+      </c>
+      <c r="H34">
+        <v>0.001760549825645844</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01862580911305388</v>
+        <v>0.01013006176608245</v>
       </c>
       <c r="C36">
-        <v>-0.003940420995913008</v>
+        <v>-0.005046897160851278</v>
       </c>
       <c r="D36">
-        <v>-0.001578535108022758</v>
+        <v>0.01101113669032493</v>
       </c>
       <c r="E36">
-        <v>0.01686831009635086</v>
+        <v>-0.00192853548223229</v>
       </c>
       <c r="F36">
-        <v>0.002824173792952699</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>3.984704875053547e-05</v>
+      </c>
+      <c r="G36">
+        <v>0.01589892881185049</v>
+      </c>
+      <c r="H36">
+        <v>0.002588434657910615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02283038970588441</v>
+        <v>0.03209554060251051</v>
       </c>
       <c r="C38">
-        <v>-0.00267240484598218</v>
+        <v>-0.0230737388470241</v>
       </c>
       <c r="D38">
-        <v>-0.0172951123578201</v>
+        <v>-0.008603480724254313</v>
       </c>
       <c r="E38">
-        <v>0.04209266060912759</v>
+        <v>-0.004685790128004754</v>
       </c>
       <c r="F38">
-        <v>0.001873253977547529</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008333912070918907</v>
+      </c>
+      <c r="G38">
+        <v>0.02178586504739432</v>
+      </c>
+      <c r="H38">
+        <v>-0.004959529801620729</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01744697563257348</v>
+        <v>0.03070244303873115</v>
       </c>
       <c r="C39">
-        <v>-0.0169796756197283</v>
+        <v>-0.08387649450561148</v>
       </c>
       <c r="D39">
-        <v>-0.06475550302924304</v>
+        <v>0.01121333420164578</v>
       </c>
       <c r="E39">
-        <v>0.04418869930260782</v>
+        <v>0.00488814068004498</v>
       </c>
       <c r="F39">
-        <v>-0.03553841514287652</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04156973027225234</v>
+      </c>
+      <c r="G39">
+        <v>0.01393972680899227</v>
+      </c>
+      <c r="H39">
+        <v>0.0137920304295732</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02783583977750811</v>
+        <v>0.02001471902171651</v>
       </c>
       <c r="C40">
-        <v>-0.00424451298113031</v>
+        <v>-0.03188524474797936</v>
       </c>
       <c r="D40">
-        <v>-0.04056601210068866</v>
+        <v>0.01257021865094515</v>
       </c>
       <c r="E40">
-        <v>0.03392870134141191</v>
+        <v>0.009909640969737305</v>
       </c>
       <c r="F40">
-        <v>-0.03542348347426243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02432654737415866</v>
+      </c>
+      <c r="G40">
+        <v>0.01557603729820664</v>
+      </c>
+      <c r="H40">
+        <v>0.001432387537464696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01264506735155429</v>
+        <v>0.01071035560682081</v>
       </c>
       <c r="C41">
-        <v>0.001040599268268506</v>
+        <v>0.002572814841103424</v>
       </c>
       <c r="D41">
-        <v>0.008508047763876035</v>
+        <v>0.003152159381886442</v>
       </c>
       <c r="E41">
-        <v>0.003978379038715375</v>
+        <v>-0.008747307525105327</v>
       </c>
       <c r="F41">
-        <v>0.007005739904447725</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0001059733544034156</v>
+      </c>
+      <c r="G41">
+        <v>0.01022906565664851</v>
+      </c>
+      <c r="H41">
+        <v>-0.001339116401054627</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1367120063937021</v>
+        <v>0.04025380418063173</v>
       </c>
       <c r="C42">
-        <v>0.08734670329715502</v>
+        <v>-0.05838551622426038</v>
       </c>
       <c r="D42">
-        <v>-0.1604095161721831</v>
+        <v>0.1034052845884125</v>
       </c>
       <c r="E42">
-        <v>0.1917229200173166</v>
+        <v>0.07694696564162201</v>
       </c>
       <c r="F42">
-        <v>0.09075177257351162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1241227094470082</v>
+      </c>
+      <c r="G42">
+        <v>-0.2309488068122053</v>
+      </c>
+      <c r="H42">
+        <v>0.9250795525297052</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0180002524027044</v>
+        <v>0.02668024635210699</v>
       </c>
       <c r="C43">
-        <v>0.00209715075509992</v>
+        <v>-0.006456446849999931</v>
       </c>
       <c r="D43">
-        <v>0.004758915900461302</v>
+        <v>0.003136954738574607</v>
       </c>
       <c r="E43">
-        <v>0.009392066385426685</v>
+        <v>-0.005536250760991669</v>
       </c>
       <c r="F43">
-        <v>0.01140851114563948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003509468932061218</v>
+      </c>
+      <c r="G43">
+        <v>0.01268136774732476</v>
+      </c>
+      <c r="H43">
+        <v>0.0007394197679602262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009618274381978015</v>
+        <v>0.01665470644733049</v>
       </c>
       <c r="C44">
-        <v>-0.01151760473761853</v>
+        <v>-0.04878963925158984</v>
       </c>
       <c r="D44">
-        <v>-0.01618161948527886</v>
+        <v>0.006426140304446253</v>
       </c>
       <c r="E44">
-        <v>0.0707725050943064</v>
+        <v>0.01632087119417224</v>
       </c>
       <c r="F44">
-        <v>-0.004090314552701438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02639424990772252</v>
+      </c>
+      <c r="G44">
+        <v>0.03056915088904488</v>
+      </c>
+      <c r="H44">
+        <v>0.01526242715426422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.007610147089929651</v>
+        <v>0.0005868604621997938</v>
       </c>
       <c r="C46">
-        <v>-0.007105647095807798</v>
+        <v>-0.01596222858050577</v>
       </c>
       <c r="D46">
-        <v>-0.02496577356517058</v>
+        <v>0.01147769452769358</v>
       </c>
       <c r="E46">
-        <v>0.0367489877067847</v>
+        <v>-0.00719821057754933</v>
       </c>
       <c r="F46">
-        <v>0.02607730009152356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.007901761824235057</v>
+      </c>
+      <c r="G46">
+        <v>0.01938627302469826</v>
+      </c>
+      <c r="H46">
+        <v>-0.02129882792330784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06915067244154287</v>
+        <v>0.07266308607490962</v>
       </c>
       <c r="C47">
-        <v>-0.00643725489614008</v>
+        <v>-0.0602074661752498</v>
       </c>
       <c r="D47">
-        <v>-0.03737268332703136</v>
+        <v>-0.005655769777653116</v>
       </c>
       <c r="E47">
-        <v>-0.03576694486125889</v>
+        <v>-0.02002000843656339</v>
       </c>
       <c r="F47">
-        <v>0.04174729491563607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.06032010705483001</v>
+      </c>
+      <c r="G47">
+        <v>0.01445699147180903</v>
+      </c>
+      <c r="H47">
+        <v>-0.003670605743693425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02784680786922697</v>
+        <v>0.01529963618603444</v>
       </c>
       <c r="C48">
-        <v>-0.004846279661077927</v>
+        <v>-0.01057778487786912</v>
       </c>
       <c r="D48">
-        <v>-0.006337031343073441</v>
+        <v>0.0007870283018360705</v>
       </c>
       <c r="E48">
-        <v>0.01678254449524932</v>
+        <v>-0.007546150200926</v>
       </c>
       <c r="F48">
-        <v>-0.0003054751068102738</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01279815412671828</v>
+      </c>
+      <c r="G48">
+        <v>0.01753394896592772</v>
+      </c>
+      <c r="H48">
+        <v>-0.000996171242388355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06992391794586934</v>
+        <v>0.07582454033850282</v>
       </c>
       <c r="C50">
-        <v>-0.03744664423937442</v>
+        <v>-0.06157578648321992</v>
       </c>
       <c r="D50">
-        <v>-0.0487249066172536</v>
+        <v>-0.004505682958133631</v>
       </c>
       <c r="E50">
-        <v>-0.0118586842886076</v>
+        <v>-0.02162066623878336</v>
       </c>
       <c r="F50">
-        <v>0.06854809035067996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05883546218819912</v>
+      </c>
+      <c r="G50">
+        <v>0.03825438119093511</v>
+      </c>
+      <c r="H50">
+        <v>-0.005685580539303531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01635548934457028</v>
+        <v>0.01713708831364677</v>
       </c>
       <c r="C51">
-        <v>-0.005791035060605214</v>
+        <v>-0.02933159654446629</v>
       </c>
       <c r="D51">
-        <v>0.01522298283713487</v>
+        <v>0.008588613280681725</v>
       </c>
       <c r="E51">
-        <v>0.05901349699307833</v>
+        <v>0.007480392329911714</v>
       </c>
       <c r="F51">
-        <v>-0.005008624165108457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03624315379875463</v>
+      </c>
+      <c r="G51">
+        <v>0.03732562535887401</v>
+      </c>
+      <c r="H51">
+        <v>-0.003440571543764744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08963580383064691</v>
+        <v>0.09807482894902717</v>
       </c>
       <c r="C53">
-        <v>-0.02636829217255149</v>
+        <v>-0.07513363505504837</v>
       </c>
       <c r="D53">
-        <v>-0.06606563612616499</v>
+        <v>-0.006727281048887857</v>
       </c>
       <c r="E53">
-        <v>-0.06138546741605425</v>
+        <v>-0.04143889928902008</v>
       </c>
       <c r="F53">
-        <v>0.02893360101117898</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06794078904238461</v>
+      </c>
+      <c r="G53">
+        <v>0.01575661777245133</v>
+      </c>
+      <c r="H53">
+        <v>0.004167805459990993</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02669315455380014</v>
+        <v>0.02770795555967652</v>
       </c>
       <c r="C54">
-        <v>-0.00952070415457539</v>
+        <v>-0.003694443374364722</v>
       </c>
       <c r="D54">
-        <v>-6.775548058327672e-05</v>
+        <v>-0.004557969920580504</v>
       </c>
       <c r="E54">
-        <v>0.0002206306686566418</v>
+        <v>-0.0006868876073210946</v>
       </c>
       <c r="F54">
-        <v>0.004839266177045653</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.002353866488982188</v>
+      </c>
+      <c r="G54">
+        <v>0.02644381105348602</v>
+      </c>
+      <c r="H54">
+        <v>-0.0189893059831815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06478220301302308</v>
+        <v>0.07304922631117744</v>
       </c>
       <c r="C55">
-        <v>-0.01803532760182378</v>
+        <v>-0.068135076124631</v>
       </c>
       <c r="D55">
-        <v>-0.07702331380244339</v>
+        <v>-0.005647789306192292</v>
       </c>
       <c r="E55">
-        <v>-0.04225196579658238</v>
+        <v>-0.03129198037882797</v>
       </c>
       <c r="F55">
-        <v>0.04991638975734167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.06299250476335665</v>
+      </c>
+      <c r="G55">
+        <v>0.004586703925498536</v>
+      </c>
+      <c r="H55">
+        <v>-0.004052747331305916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1269608534385692</v>
+        <v>0.1469415038125368</v>
       </c>
       <c r="C56">
-        <v>-0.02383104653323437</v>
+        <v>-0.09673694450189076</v>
       </c>
       <c r="D56">
-        <v>-0.09498180395752413</v>
+        <v>-0.01564736983459049</v>
       </c>
       <c r="E56">
-        <v>-0.09198523223342998</v>
+        <v>-0.04517963290878339</v>
       </c>
       <c r="F56">
-        <v>0.02099167864453492</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1043101975125752</v>
+      </c>
+      <c r="G56">
+        <v>-0.005301629070942882</v>
+      </c>
+      <c r="H56">
+        <v>0.004454748462343956</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03848279452535638</v>
+        <v>0.01563088278474148</v>
       </c>
       <c r="C57">
-        <v>0.002564286984798251</v>
+        <v>-0.01113372746020955</v>
       </c>
       <c r="D57">
-        <v>-0.02455323570535354</v>
+        <v>0.02363245410185274</v>
       </c>
       <c r="E57">
-        <v>0.04606400448786337</v>
+        <v>0.03203383733051918</v>
       </c>
       <c r="F57">
-        <v>-0.01339770215752275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01813481306400024</v>
+      </c>
+      <c r="G57">
+        <v>0.02340760120391779</v>
+      </c>
+      <c r="H57">
+        <v>0.006725502918019265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1653957699998831</v>
+        <v>0.07457889620920168</v>
       </c>
       <c r="C58">
-        <v>0.1138278489351216</v>
+        <v>-0.0772478404179488</v>
       </c>
       <c r="D58">
-        <v>-0.1731423568738841</v>
+        <v>0.0185619944573206</v>
       </c>
       <c r="E58">
-        <v>0.5903188239473872</v>
+        <v>0.9469123327367633</v>
       </c>
       <c r="F58">
-        <v>0.5739749176536463</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2196988403124062</v>
+      </c>
+      <c r="G58">
+        <v>0.0737856592696108</v>
+      </c>
+      <c r="H58">
+        <v>-0.09464718685447021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1400416841531815</v>
+        <v>0.1502397703495254</v>
       </c>
       <c r="C59">
-        <v>0.06967274910453951</v>
+        <v>0.2150152152542635</v>
       </c>
       <c r="D59">
-        <v>0.1901450897914869</v>
+        <v>-0.01820494433233412</v>
       </c>
       <c r="E59">
-        <v>0.04219433018407916</v>
+        <v>0.01454181522789629</v>
       </c>
       <c r="F59">
-        <v>-0.05427657340459645</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01345000570181222</v>
+      </c>
+      <c r="G59">
+        <v>0.01794947484423983</v>
+      </c>
+      <c r="H59">
+        <v>-0.001810726618475932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2114733128368916</v>
+        <v>0.2935832541649928</v>
       </c>
       <c r="C60">
-        <v>0.03803465131184398</v>
+        <v>-0.0832251399939779</v>
       </c>
       <c r="D60">
-        <v>-0.03453074687940969</v>
+        <v>0.005156389444648697</v>
       </c>
       <c r="E60">
-        <v>0.1631349641312502</v>
+        <v>0.02069393232197797</v>
       </c>
       <c r="F60">
-        <v>-0.3930679009817464</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3929945669069905</v>
+      </c>
+      <c r="G60">
+        <v>-0.04683361457127171</v>
+      </c>
+      <c r="H60">
+        <v>-0.06702515884812851</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03098063370422281</v>
+        <v>0.03186949718002224</v>
       </c>
       <c r="C61">
-        <v>-0.009942315392718715</v>
+        <v>-0.06408903759282798</v>
       </c>
       <c r="D61">
-        <v>-0.05547004390180779</v>
+        <v>0.004493457599456018</v>
       </c>
       <c r="E61">
-        <v>0.02643587971914198</v>
+        <v>0.0003640305441040241</v>
       </c>
       <c r="F61">
-        <v>-0.05001461150022866</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02735508521461699</v>
+      </c>
+      <c r="G61">
+        <v>0.01525752857389697</v>
+      </c>
+      <c r="H61">
+        <v>-0.002046331934932641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01727512885706753</v>
+        <v>0.01329591385321013</v>
       </c>
       <c r="C63">
-        <v>-0.008903305739950096</v>
+        <v>-0.02793448641794497</v>
       </c>
       <c r="D63">
-        <v>-0.02217118741788865</v>
+        <v>0.007478663224907221</v>
       </c>
       <c r="E63">
-        <v>0.005010524521312876</v>
+        <v>-0.0170581523623813</v>
       </c>
       <c r="F63">
-        <v>0.02492777711369813</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.005566498775675393</v>
+      </c>
+      <c r="G63">
+        <v>0.02103978026705334</v>
+      </c>
+      <c r="H63">
+        <v>-0.00421544068392191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04677619329561345</v>
+        <v>0.04654705138433046</v>
       </c>
       <c r="C64">
-        <v>-0.01020227631983359</v>
+        <v>-0.03569365135769962</v>
       </c>
       <c r="D64">
-        <v>-0.04059390787821807</v>
+        <v>0.004062070872731337</v>
       </c>
       <c r="E64">
-        <v>0.01311083935287846</v>
+        <v>-0.01703677785352387</v>
       </c>
       <c r="F64">
-        <v>-0.01373955485156631</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01480332966686238</v>
+      </c>
+      <c r="G64">
+        <v>0.01267815222036415</v>
+      </c>
+      <c r="H64">
+        <v>0.0349382130578681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0683336746307249</v>
+        <v>0.0784741686113857</v>
       </c>
       <c r="C65">
-        <v>-0.01474273348321417</v>
+        <v>-0.06650454855271457</v>
       </c>
       <c r="D65">
-        <v>-0.05492767770755184</v>
+        <v>0.01447808968022782</v>
       </c>
       <c r="E65">
-        <v>0.02618552257187015</v>
+        <v>-0.00113112304853449</v>
       </c>
       <c r="F65">
-        <v>-0.05259542691849485</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.0380786049651068</v>
+      </c>
+      <c r="G65">
+        <v>0.009048246601705258</v>
+      </c>
+      <c r="H65">
+        <v>-0.01508260491067554</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03970681517407031</v>
+        <v>0.052237812345292</v>
       </c>
       <c r="C66">
-        <v>-0.001315910965028905</v>
+        <v>-0.1182515018679041</v>
       </c>
       <c r="D66">
-        <v>-0.08613804386270765</v>
+        <v>0.0102604739071565</v>
       </c>
       <c r="E66">
-        <v>0.02461972480767571</v>
+        <v>0.005913970096706656</v>
       </c>
       <c r="F66">
-        <v>-0.04467220062307698</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.04829690433244486</v>
+      </c>
+      <c r="G66">
+        <v>0.002809570265116022</v>
+      </c>
+      <c r="H66">
+        <v>-0.00861383266828086</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03933744487852993</v>
+        <v>0.0573732765902165</v>
       </c>
       <c r="C67">
-        <v>-0.0003945898037040475</v>
+        <v>-0.02550075503380056</v>
       </c>
       <c r="D67">
-        <v>-0.01728371796339826</v>
+        <v>-0.00749315384532594</v>
       </c>
       <c r="E67">
-        <v>0.02302424550812682</v>
+        <v>-0.01193055805053019</v>
       </c>
       <c r="F67">
-        <v>-0.008792739535980743</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.007722317352756648</v>
+      </c>
+      <c r="G67">
+        <v>0.02164388991444495</v>
+      </c>
+      <c r="H67">
+        <v>-0.008945265216656445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1216688383504575</v>
+        <v>0.1204924791587942</v>
       </c>
       <c r="C68">
-        <v>0.06860246793257528</v>
+        <v>0.2683804352730556</v>
       </c>
       <c r="D68">
-        <v>0.2101455001449619</v>
+        <v>0.0005467414846000783</v>
       </c>
       <c r="E68">
-        <v>0.007885294802714545</v>
+        <v>0.01322129681717159</v>
       </c>
       <c r="F68">
-        <v>-0.00683134823572815</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01829060775753871</v>
+      </c>
+      <c r="G68">
+        <v>0.01831729208687777</v>
+      </c>
+      <c r="H68">
+        <v>0.01568449505753584</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05408241693629439</v>
+        <v>0.0754903070623268</v>
       </c>
       <c r="C69">
-        <v>-0.009735181121431548</v>
+        <v>-0.05826644701433665</v>
       </c>
       <c r="D69">
-        <v>-0.04296334694596871</v>
+        <v>-0.01012485858714466</v>
       </c>
       <c r="E69">
-        <v>-0.02517103453065854</v>
+        <v>-0.03616695624042114</v>
       </c>
       <c r="F69">
-        <v>0.01834994743562463</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03757090520474775</v>
+      </c>
+      <c r="G69">
+        <v>0.01195274109724071</v>
+      </c>
+      <c r="H69">
+        <v>-0.01260427062189483</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1135857530394008</v>
+        <v>0.1227862933710436</v>
       </c>
       <c r="C71">
-        <v>0.05323631041782079</v>
+        <v>0.2255324905872926</v>
       </c>
       <c r="D71">
-        <v>0.2069710661204358</v>
+        <v>-0.008504250151934333</v>
       </c>
       <c r="E71">
-        <v>0.02297026851466904</v>
+        <v>0.0201012117146549</v>
       </c>
       <c r="F71">
-        <v>0.03900465156824422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02366642977197884</v>
+      </c>
+      <c r="G71">
+        <v>0.03160559162935354</v>
+      </c>
+      <c r="H71">
+        <v>0.03093376923577785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1221202940530846</v>
+        <v>0.08298205098817032</v>
       </c>
       <c r="C72">
-        <v>-0.009524091088929151</v>
+        <v>-0.08241063338641785</v>
       </c>
       <c r="D72">
-        <v>-0.1416252117013069</v>
+        <v>-0.009834571761549088</v>
       </c>
       <c r="E72">
-        <v>0.1118869599201464</v>
+        <v>-0.02162050975394486</v>
       </c>
       <c r="F72">
-        <v>-0.1806553547264557</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03564398798537664</v>
+      </c>
+      <c r="G72">
+        <v>-0.009389062700042194</v>
+      </c>
+      <c r="H72">
+        <v>-0.009891945900682783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2626664797776991</v>
+        <v>0.3981586122096697</v>
       </c>
       <c r="C73">
-        <v>0.09285908018560853</v>
+        <v>-0.09800178120156747</v>
       </c>
       <c r="D73">
-        <v>-0.08177921943300022</v>
+        <v>0.009271754912367269</v>
       </c>
       <c r="E73">
-        <v>0.2377154843588239</v>
+        <v>0.07164217466347407</v>
       </c>
       <c r="F73">
-        <v>-0.3969565829920608</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5303531249145681</v>
+      </c>
+      <c r="G73">
+        <v>-0.09103819173586311</v>
+      </c>
+      <c r="H73">
+        <v>0.05738935352124336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.114613904477483</v>
+        <v>0.1170237605847487</v>
       </c>
       <c r="C74">
-        <v>-0.01447358357629469</v>
+        <v>-0.1150803620797866</v>
       </c>
       <c r="D74">
-        <v>-0.09788461587580019</v>
+        <v>-0.01139786905739782</v>
       </c>
       <c r="E74">
-        <v>-0.08362079009721385</v>
+        <v>-0.04295799496491324</v>
       </c>
       <c r="F74">
-        <v>0.008653276275932195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07304186995164731</v>
+      </c>
+      <c r="G74">
+        <v>0.006572331975507948</v>
+      </c>
+      <c r="H74">
+        <v>0.0006942883215029358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2385828824773526</v>
+        <v>0.2590215593193947</v>
       </c>
       <c r="C75">
-        <v>-0.01755572711957894</v>
+        <v>-0.138079727788607</v>
       </c>
       <c r="D75">
-        <v>-0.1535587720905144</v>
+        <v>-0.03259944725431314</v>
       </c>
       <c r="E75">
-        <v>-0.1611527870746659</v>
+        <v>-0.06260578138417638</v>
       </c>
       <c r="F75">
-        <v>0.02259659547633345</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2205321295107102</v>
+      </c>
+      <c r="G75">
+        <v>-0.0350462566409398</v>
+      </c>
+      <c r="H75">
+        <v>1.734220460532208e-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2276280079656829</v>
+        <v>0.1477390896161076</v>
       </c>
       <c r="C76">
-        <v>-0.03954085615019943</v>
+        <v>-0.119248416914083</v>
       </c>
       <c r="D76">
-        <v>-0.1557956464450623</v>
+        <v>-0.02419530435065241</v>
       </c>
       <c r="E76">
-        <v>-0.2263094305118465</v>
+        <v>-0.06864201569756008</v>
       </c>
       <c r="F76">
-        <v>0.04460982098545431</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1451907640844843</v>
+      </c>
+      <c r="G76">
+        <v>-0.002477937980969843</v>
+      </c>
+      <c r="H76">
+        <v>-0.008545213193289533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0412634157569156</v>
+        <v>0.05489203434047776</v>
       </c>
       <c r="C77">
-        <v>-0.00880443147446091</v>
+        <v>-0.06304936894377583</v>
       </c>
       <c r="D77">
-        <v>-0.05597099737638189</v>
+        <v>0.01176400855156257</v>
       </c>
       <c r="E77">
-        <v>0.07462474926938188</v>
+        <v>0.02782916463554968</v>
       </c>
       <c r="F77">
-        <v>0.1178770449465828</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.006726528124418413</v>
+      </c>
+      <c r="G77">
+        <v>0.03537237028719303</v>
+      </c>
+      <c r="H77">
+        <v>0.02259984542439151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02936190674193379</v>
+        <v>0.0438356126516764</v>
       </c>
       <c r="C78">
-        <v>-0.01311763147480926</v>
+        <v>-0.05447438872696522</v>
       </c>
       <c r="D78">
-        <v>-0.04594344607404292</v>
+        <v>0.004569958735346934</v>
       </c>
       <c r="E78">
-        <v>0.05737035876514622</v>
+        <v>0.0137164775635273</v>
       </c>
       <c r="F78">
-        <v>-0.02897267293152124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04417890211999445</v>
+      </c>
+      <c r="G78">
+        <v>0.02505772465763716</v>
+      </c>
+      <c r="H78">
+        <v>-0.01028926683092522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1919062648928198</v>
+        <v>0.06742587181372715</v>
       </c>
       <c r="C80">
-        <v>-0.9282580245594736</v>
+        <v>-0.08116823580821721</v>
       </c>
       <c r="D80">
-        <v>0.216995597646433</v>
+        <v>0.01231016701917402</v>
       </c>
       <c r="E80">
-        <v>0.1362195243101569</v>
+        <v>-0.080836299234448</v>
       </c>
       <c r="F80">
-        <v>0.02009981626057385</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.01646898989485192</v>
+      </c>
+      <c r="G80">
+        <v>0.9226760775298104</v>
+      </c>
+      <c r="H80">
+        <v>0.2179171157341807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1853648440466066</v>
+        <v>0.1501947388331097</v>
       </c>
       <c r="C81">
-        <v>-0.02360195423045924</v>
+        <v>-0.0886649120103009</v>
       </c>
       <c r="D81">
-        <v>-0.1123739754393176</v>
+        <v>-0.01828159733279433</v>
       </c>
       <c r="E81">
-        <v>-0.122744197392131</v>
+        <v>-0.04322702410500727</v>
       </c>
       <c r="F81">
-        <v>0.06678828282929894</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1395135749280903</v>
+      </c>
+      <c r="G81">
+        <v>0.004857960191894442</v>
+      </c>
+      <c r="H81">
+        <v>-0.005481453093754161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03946130283983822</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02975042564891054</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002198711691226272</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01987389207299322</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.002342802748388036</v>
+      </c>
+      <c r="G82">
+        <v>-0.001461651942081422</v>
+      </c>
+      <c r="H82">
+        <v>-0.01692647208548652</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03421247183703219</v>
+        <v>0.0306414035630046</v>
       </c>
       <c r="C83">
-        <v>0.001611655091317637</v>
+        <v>-0.01991437183593751</v>
       </c>
       <c r="D83">
-        <v>-0.01307581518262707</v>
+        <v>0.004659961719378033</v>
       </c>
       <c r="E83">
-        <v>0.04063473410678191</v>
+        <v>0.02339119232407516</v>
       </c>
       <c r="F83">
-        <v>0.01417437343418946</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02487935592894448</v>
+      </c>
+      <c r="G83">
+        <v>0.02584602834538364</v>
+      </c>
+      <c r="H83">
+        <v>-0.01000029143953943</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2236679228283198</v>
+        <v>0.2453259680494364</v>
       </c>
       <c r="C85">
-        <v>-0.01424502489290015</v>
+        <v>-0.1466309778545146</v>
       </c>
       <c r="D85">
-        <v>-0.1825237224013017</v>
+        <v>-0.02172530921819015</v>
       </c>
       <c r="E85">
-        <v>-0.1726211246138561</v>
+        <v>-0.1057252955430039</v>
       </c>
       <c r="F85">
-        <v>0.04088007748996435</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2070511729671072</v>
+      </c>
+      <c r="G85">
+        <v>-0.06643189005196742</v>
+      </c>
+      <c r="H85">
+        <v>0.003633217103719468</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01522232932138916</v>
+        <v>0.00902043613523016</v>
       </c>
       <c r="C86">
-        <v>-0.009929854043998513</v>
+        <v>-0.02369770435186231</v>
       </c>
       <c r="D86">
-        <v>-0.02314677647217184</v>
+        <v>0.009512630257593468</v>
       </c>
       <c r="E86">
-        <v>0.05443238144266418</v>
+        <v>0.0149831930463065</v>
       </c>
       <c r="F86">
-        <v>0.02396346168306389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02317007776543272</v>
+      </c>
+      <c r="G86">
+        <v>0.049189365094088</v>
+      </c>
+      <c r="H86">
+        <v>0.03373252010906904</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02823968488346203</v>
+        <v>0.01742803534683888</v>
       </c>
       <c r="C87">
-        <v>-0.008807335864805936</v>
+        <v>-0.02703247187991561</v>
       </c>
       <c r="D87">
-        <v>-0.03037492895421711</v>
+        <v>0.01090822091504139</v>
       </c>
       <c r="E87">
-        <v>0.1019750023598115</v>
+        <v>0.07422105270139155</v>
       </c>
       <c r="F87">
-        <v>-0.02930034874200508</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06245612085712961</v>
+      </c>
+      <c r="G87">
+        <v>0.03997897711297559</v>
+      </c>
+      <c r="H87">
+        <v>0.01299091124179754</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0495834454133613</v>
+        <v>0.08432931400142117</v>
       </c>
       <c r="C88">
-        <v>0.005522590853044001</v>
+        <v>-0.05176200152968193</v>
       </c>
       <c r="D88">
-        <v>-0.009158293076567636</v>
+        <v>0.02041424763731505</v>
       </c>
       <c r="E88">
-        <v>-0.00390201324376018</v>
+        <v>-0.01739125798994427</v>
       </c>
       <c r="F88">
-        <v>-0.02525019551323888</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.006879163982670805</v>
+      </c>
+      <c r="G88">
+        <v>0.01775954418991136</v>
+      </c>
+      <c r="H88">
+        <v>-0.02254510021572581</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2229905743746863</v>
+        <v>0.2168430555677839</v>
       </c>
       <c r="C89">
-        <v>0.1312448933916229</v>
+        <v>0.3774229279883834</v>
       </c>
       <c r="D89">
-        <v>0.3521591209732319</v>
+        <v>-0.0110877757990351</v>
       </c>
       <c r="E89">
-        <v>-0.005203506064744015</v>
+        <v>-0.01075626860332779</v>
       </c>
       <c r="F89">
-        <v>0.004685635543674268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02408562191354685</v>
+      </c>
+      <c r="G89">
+        <v>0.02830698746759767</v>
+      </c>
+      <c r="H89">
+        <v>-0.003674988766237737</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1387892084955079</v>
+        <v>0.1794385263354217</v>
       </c>
       <c r="C90">
-        <v>0.1138829135826833</v>
+        <v>0.3388765277813492</v>
       </c>
       <c r="D90">
-        <v>0.3025609894959118</v>
+        <v>-0.01315999927273744</v>
       </c>
       <c r="E90">
-        <v>-0.05003397186173589</v>
+        <v>0.004352034902698612</v>
       </c>
       <c r="F90">
-        <v>0.05646528922274214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.03915851525261278</v>
+      </c>
+      <c r="G90">
+        <v>0.003884851100667823</v>
+      </c>
+      <c r="H90">
+        <v>0.008394893370197677</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2467405197318983</v>
+        <v>0.2135687094072534</v>
       </c>
       <c r="C91">
-        <v>-0.01993848257000359</v>
+        <v>-0.1315123304710105</v>
       </c>
       <c r="D91">
-        <v>-0.1878917731042844</v>
+        <v>-0.02702035186046528</v>
       </c>
       <c r="E91">
-        <v>-0.2379714159334769</v>
+        <v>-0.08731836821889899</v>
       </c>
       <c r="F91">
-        <v>0.04157979285193274</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1942359294642632</v>
+      </c>
+      <c r="G91">
+        <v>-0.02233211450504008</v>
+      </c>
+      <c r="H91">
+        <v>-0.0007585473350603632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2910342812674308</v>
+        <v>0.214983752804327</v>
       </c>
       <c r="C92">
-        <v>0.1050469727510485</v>
+        <v>0.272165504935629</v>
       </c>
       <c r="D92">
-        <v>0.2688194034718618</v>
+        <v>-0.0571006604855348</v>
       </c>
       <c r="E92">
-        <v>-0.14730224412163</v>
+        <v>-0.001004470429684475</v>
       </c>
       <c r="F92">
-        <v>0.245826032029649</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1403622034935153</v>
+      </c>
+      <c r="G92">
+        <v>0.05192796964166144</v>
+      </c>
+      <c r="H92">
+        <v>-0.0003918503771667178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2008347770430801</v>
+        <v>0.2043068901616455</v>
       </c>
       <c r="C93">
-        <v>0.1474627975951169</v>
+        <v>0.3363796710868521</v>
       </c>
       <c r="D93">
-        <v>0.347438399539784</v>
+        <v>-0.0201116620168272</v>
       </c>
       <c r="E93">
-        <v>-0.01678160912199445</v>
+        <v>0.01573857152669514</v>
       </c>
       <c r="F93">
-        <v>-0.007107458194082939</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.00866117345798861</v>
+      </c>
+      <c r="G93">
+        <v>-0.002144526976105861</v>
+      </c>
+      <c r="H93">
+        <v>0.03397854151049878</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3015982366341374</v>
+        <v>0.2895266054456129</v>
       </c>
       <c r="C94">
-        <v>0.0178723252680644</v>
+        <v>-0.1474760894857806</v>
       </c>
       <c r="D94">
-        <v>-0.1705525061399102</v>
+        <v>-0.01618921087249556</v>
       </c>
       <c r="E94">
-        <v>-0.2446030281584809</v>
+        <v>-0.0961923444776997</v>
       </c>
       <c r="F94">
-        <v>0.1276682668621134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3711209399831397</v>
+      </c>
+      <c r="G94">
+        <v>-0.1299115883130122</v>
+      </c>
+      <c r="H94">
+        <v>-0.2210444461090979</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08444780983039653</v>
+        <v>0.076189731849905</v>
       </c>
       <c r="C95">
-        <v>0.0696100641538797</v>
+        <v>-0.08216676144769984</v>
       </c>
       <c r="D95">
-        <v>-0.06050860170763094</v>
+        <v>-0.007635972036083087</v>
       </c>
       <c r="E95">
-        <v>0.01071944714792114</v>
+        <v>0.07311282311675171</v>
       </c>
       <c r="F95">
-        <v>-0.07927247899422527</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1434429746791268</v>
+      </c>
+      <c r="G95">
+        <v>-0.06294417144385438</v>
+      </c>
+      <c r="H95">
+        <v>0.02999828174895668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2153942015315947</v>
+        <v>0.2163435244690035</v>
       </c>
       <c r="C98">
-        <v>0.06302592563285224</v>
+        <v>-0.04361451903204408</v>
       </c>
       <c r="D98">
-        <v>-0.02275439963632505</v>
+        <v>-0.02046022304146421</v>
       </c>
       <c r="E98">
-        <v>0.2426093694427266</v>
+        <v>0.06947989510094822</v>
       </c>
       <c r="F98">
-        <v>-0.3595446275675426</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2596514875279815</v>
+      </c>
+      <c r="G98">
+        <v>-0.02888956622050726</v>
+      </c>
+      <c r="H98">
+        <v>0.03771558728211221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02789522491631168</v>
+        <v>0.01357005903904938</v>
       </c>
       <c r="C101">
-        <v>-0.003451598241093225</v>
+        <v>-0.02052862948925601</v>
       </c>
       <c r="D101">
-        <v>-0.02285147629687447</v>
+        <v>0.008100017127491534</v>
       </c>
       <c r="E101">
-        <v>0.1189554363771986</v>
+        <v>0.03189367149699725</v>
       </c>
       <c r="F101">
-        <v>0.1723214507717555</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02370635050529648</v>
+      </c>
+      <c r="G101">
+        <v>0.03240319362852628</v>
+      </c>
+      <c r="H101">
+        <v>-0.02118036193250377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1277984778553543</v>
+        <v>0.1249093725093171</v>
       </c>
       <c r="C102">
-        <v>-0.01037408764908089</v>
+        <v>-0.07672702343497241</v>
       </c>
       <c r="D102">
-        <v>-0.08247361886487314</v>
+        <v>-0.001288158736696787</v>
       </c>
       <c r="E102">
-        <v>-0.106831233299291</v>
+        <v>-0.04691365217553335</v>
       </c>
       <c r="F102">
-        <v>0.04043070448710991</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06294933942785948</v>
+      </c>
+      <c r="G102">
+        <v>-0.01806819997988516</v>
+      </c>
+      <c r="H102">
+        <v>0.01094655079209263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03251644031434831</v>
+        <v>0.006859033230039155</v>
       </c>
       <c r="C103">
-        <v>-0.01746011662579436</v>
+        <v>-0.005971157194830931</v>
       </c>
       <c r="D103">
-        <v>-0.02370782068823994</v>
+        <v>0.0001612116108066772</v>
       </c>
       <c r="E103">
-        <v>-0.01269170014124901</v>
+        <v>-0.001442240699961227</v>
       </c>
       <c r="F103">
-        <v>0.003271552865858206</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01095208719109846</v>
+      </c>
+      <c r="G103">
+        <v>0.01309801520037849</v>
+      </c>
+      <c r="H103">
+        <v>0.00533416730701462</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.04697693463998965</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04718498376937604</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9856031898275038</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04174419738707941</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.03665967668263932</v>
+      </c>
+      <c r="G104">
+        <v>0.0005384218141749592</v>
+      </c>
+      <c r="H104">
+        <v>-0.0984514979648909</v>
       </c>
     </row>
   </sheetData>
